--- a/充电OCV静置数据.xlsx
+++ b/充电OCV静置数据.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -31,8 +31,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,7 +130,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -162,10 +162,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -197,7 +196,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -373,16 +371,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B1" sqref="B1:B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -393,7 +391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2">
         <f>SUM(A3:A16)</f>
         <v>3167.5999999999995</v>
@@ -405,7 +403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>240.1</v>
       </c>
@@ -417,7 +415,7 @@
         <v>7.5798711958580636E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>240.1</v>
       </c>
@@ -429,7 +427,7 @@
         <v>0.15159742391716127</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>240.1</v>
       </c>
@@ -441,7 +439,7 @@
         <v>0.22739613587574192</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>240.1</v>
       </c>
@@ -453,7 +451,7 @@
         <v>0.30319484783432255</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>240.1</v>
       </c>
@@ -465,7 +463,7 @@
         <v>0.37899355979290322</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>240.1</v>
       </c>
@@ -477,7 +475,7 @@
         <v>0.45479227175148385</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>240.1</v>
       </c>
@@ -489,7 +487,7 @@
         <v>0.53059098371006441</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>240.1</v>
       </c>
@@ -501,7 +499,7 @@
         <v>0.60638969566864509</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>240.1</v>
       </c>
@@ -513,7 +511,7 @@
         <v>0.68218840762722566</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>240.1</v>
       </c>
@@ -525,7 +523,7 @@
         <v>0.75798711958580622</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>240.1</v>
       </c>
@@ -537,7 +535,7 @@
         <v>0.8337858315443869</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>240.2</v>
       </c>
@@ -549,7 +547,7 @@
         <v>0.90961611314559909</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>240</v>
       </c>
@@ -561,7 +559,7 @@
         <v>0.98538325546154815</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>46.3</v>
       </c>
